--- a/docs/loc_DailyAssign_cost.xlsx
+++ b/docs/loc_DailyAssign_cost.xlsx
@@ -14,27 +14,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>CCcars_num</t>
-  </si>
-  <si>
-    <t>FixedCost_rent</t>
-  </si>
-  <si>
-    <t>CCcars_fuel</t>
-  </si>
-  <si>
-    <t>PCcars_fuel</t>
-  </si>
-  <si>
-    <t>TXcars_fuel</t>
-  </si>
-  <si>
-    <t>VarCost_fuel</t>
-  </si>
-  <si>
-    <t>TotalCost</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+  <si>
+    <t>據點社車數量(輛)</t>
+  </si>
+  <si>
+    <t>固定成本_年度社車租賃費用(輛/元)</t>
+  </si>
+  <si>
+    <t>變動成本_年度社車油耗成本(元)</t>
+  </si>
+  <si>
+    <t>變動成本_年度私車油耗成本(元)</t>
+  </si>
+  <si>
+    <t>變動成本_年度計程車使用成本(元)</t>
+  </si>
+  <si>
+    <t>變動成本總計(元)</t>
+  </si>
+  <si>
+    <t>總成本(元)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>156,401</t>
+  </si>
+  <si>
+    <t>312,802</t>
+  </si>
+  <si>
+    <t>469,203</t>
+  </si>
+  <si>
+    <t>625,605</t>
+  </si>
+  <si>
+    <t>782,006</t>
+  </si>
+  <si>
+    <t>938,407</t>
+  </si>
+  <si>
+    <t>1,094,809</t>
+  </si>
+  <si>
+    <t>1,251,210</t>
+  </si>
+  <si>
+    <t>1,407,611</t>
+  </si>
+  <si>
+    <t>1,564,013</t>
+  </si>
+  <si>
+    <t>1,720,414</t>
+  </si>
+  <si>
+    <t>1,876,815</t>
+  </si>
+  <si>
+    <t>2,033,217</t>
+  </si>
+  <si>
+    <t>2,189,618</t>
+  </si>
+  <si>
+    <t>2,346,019</t>
+  </si>
+  <si>
+    <t>2,502,421</t>
+  </si>
+  <si>
+    <t>2,658,822</t>
+  </si>
+  <si>
+    <t>2,815,223</t>
+  </si>
+  <si>
+    <t>300,430</t>
+  </si>
+  <si>
+    <t>434,450</t>
+  </si>
+  <si>
+    <t>523,612</t>
+  </si>
+  <si>
+    <t>594,134</t>
+  </si>
+  <si>
+    <t>652,831</t>
+  </si>
+  <si>
+    <t>702,971</t>
+  </si>
+  <si>
+    <t>745,831</t>
+  </si>
+  <si>
+    <t>780,670</t>
+  </si>
+  <si>
+    <t>808,626</t>
+  </si>
+  <si>
+    <t>830,931</t>
+  </si>
+  <si>
+    <t>848,967</t>
+  </si>
+  <si>
+    <t>862,328</t>
+  </si>
+  <si>
+    <t>872,124</t>
+  </si>
+  <si>
+    <t>878,416</t>
+  </si>
+  <si>
+    <t>882,116</t>
+  </si>
+  <si>
+    <t>883,854</t>
+  </si>
+  <si>
+    <t>884,529</t>
+  </si>
+  <si>
+    <t>884,810</t>
+  </si>
+  <si>
+    <t>1,528,660</t>
+  </si>
+  <si>
+    <t>1,068,388</t>
+  </si>
+  <si>
+    <t>876,928</t>
+  </si>
+  <si>
+    <t>750,266</t>
+  </si>
+  <si>
+    <t>643,442</t>
+  </si>
+  <si>
+    <t>544,702</t>
+  </si>
+  <si>
+    <t>444,162</t>
+  </si>
+  <si>
+    <t>342,138</t>
+  </si>
+  <si>
+    <t>257,436</t>
+  </si>
+  <si>
+    <t>188,886</t>
+  </si>
+  <si>
+    <t>133,716</t>
+  </si>
+  <si>
+    <t>88,998</t>
+  </si>
+  <si>
+    <t>55,872</t>
+  </si>
+  <si>
+    <t>31,584</t>
+  </si>
+  <si>
+    <t>15,984</t>
+  </si>
+  <si>
+    <t>6,810</t>
+  </si>
+  <si>
+    <t>2,502</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>835,645</t>
+  </si>
+  <si>
+    <t>598,575</t>
+  </si>
+  <si>
+    <t>401,390</t>
+  </si>
+  <si>
+    <t>253,415</t>
+  </si>
+  <si>
+    <t>146,047</t>
+  </si>
+  <si>
+    <t>75,290</t>
+  </si>
+  <si>
+    <t>31,937</t>
+  </si>
+  <si>
+    <t>12,172</t>
+  </si>
+  <si>
+    <t>4,295</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>2,364,305</t>
+  </si>
+  <si>
+    <t>1,967,393</t>
+  </si>
+  <si>
+    <t>1,712,768</t>
+  </si>
+  <si>
+    <t>1,527,293</t>
+  </si>
+  <si>
+    <t>1,383,623</t>
+  </si>
+  <si>
+    <t>1,272,823</t>
+  </si>
+  <si>
+    <t>1,179,070</t>
+  </si>
+  <si>
+    <t>1,100,142</t>
+  </si>
+  <si>
+    <t>1,042,401</t>
+  </si>
+  <si>
+    <t>998,157</t>
+  </si>
+  <si>
+    <t>964,647</t>
+  </si>
+  <si>
+    <t>937,965</t>
+  </si>
+  <si>
+    <t>918,200</t>
+  </si>
+  <si>
+    <t>903,708</t>
+  </si>
+  <si>
+    <t>894,400</t>
+  </si>
+  <si>
+    <t>888,926</t>
+  </si>
+  <si>
+    <t>886,356</t>
+  </si>
+  <si>
+    <t>885,357</t>
+  </si>
+  <si>
+    <t>884,942</t>
+  </si>
+  <si>
+    <t>2,123,795</t>
+  </si>
+  <si>
+    <t>2,025,571</t>
+  </si>
+  <si>
+    <t>1,996,497</t>
+  </si>
+  <si>
+    <t>2,009,229</t>
+  </si>
+  <si>
+    <t>2,054,829</t>
+  </si>
+  <si>
+    <t>2,117,478</t>
+  </si>
+  <si>
+    <t>2,194,951</t>
+  </si>
+  <si>
+    <t>2,293,611</t>
+  </si>
+  <si>
+    <t>2,405,769</t>
+  </si>
+  <si>
+    <t>2,528,660</t>
+  </si>
+  <si>
+    <t>2,658,380</t>
+  </si>
+  <si>
+    <t>2,795,016</t>
+  </si>
+  <si>
+    <t>2,936,925</t>
+  </si>
+  <si>
+    <t>3,084,019</t>
+  </si>
+  <si>
+    <t>3,234,946</t>
+  </si>
+  <si>
+    <t>3,388,777</t>
+  </si>
+  <si>
+    <t>3,544,179</t>
+  </si>
+  <si>
+    <t>3,700,166</t>
   </si>
 </sst>
 </file>
@@ -392,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,207 +734,437 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>781504.4399999999</v>
-      </c>
-      <c r="E2">
-        <v>51626</v>
-      </c>
-      <c r="F2">
-        <v>833130.4399999999</v>
-      </c>
-      <c r="G2">
-        <v>833130.4399999999</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
